--- a/report/reliability/comb/Faculdade de Direito - FDA-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Direito - FDA-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -4128,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7853017914901257</v>
+        <v>0.778966084517209</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8070655876572477</v>
+        <v>0.7991291995847086</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9086266827042848</v>
+        <v>0.9081923792457327</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.25848609546237766</v>
+        <v>0.23431784431500952</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.1831085385819</v>
+        <v>3.978324365375878</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.030333245449400578</v>
+        <v>0.028894946862283673</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>3.0093537414965987</v>
+        <v>2.3092621664050235</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7959737828839268</v>
+        <v>0.7177014823590389</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2000249376986074</v>
+        <v>0.18275316312334478</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7703704736930203</v>
+        <v>0.7831910478252103</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7829425761099039</v>
+        <v>0.8026240274159222</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8901240479143909</v>
+        <v>0.909250956324462</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.24694030705973977</v>
+        <v>0.25310302167598697</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.6070757778196785</v>
+        <v>4.066472817880719</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.0324972914066074</v>
+        <v>0.02917713050502049</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04183493675212536</v>
+        <v>0.06075426987952793</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1869465639087008</v>
+        <v>0.2000249376986074</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.774342260199359</v>
+        <v>0.7673957482212633</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7887567107988587</v>
+        <v>0.782672710330831</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8999924870486549</v>
+        <v>0.8997487883432687</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.25342127466373215</v>
+        <v>0.23083603707663217</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.7338781922100313</v>
+        <v>3.601354949589033</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03174641007057572</v>
+        <v>0.030500322266429715</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.043751592526678706</v>
+        <v>0.06251739613106314</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.1869465639087008</v>
+        <v>0.17670627575031925</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7728877872870461</v>
+        <v>0.7720007988845904</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7853076406307338</v>
+        <v>0.7870397726370281</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8909383912154665</v>
+        <v>0.9029580200300156</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24954773042622178</v>
+        <v>0.23546000184088983</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.6578276140699604</v>
+        <v>3.6957124923405935</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.0321316313860619</v>
+        <v>0.02968776447692324</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.042797090781286067</v>
+        <v>0.06381584369530031</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.20624909156787252</v>
+        <v>0.18187049520208864</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7791775371811955</v>
+        <v>0.7623024685627781</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7962503145826955</v>
+        <v>0.7721719814246306</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8995944730096375</v>
+        <v>0.8874013627400564</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.26214029275084577</v>
+        <v>0.22023620961589677</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.907983037872555</v>
+        <v>3.3892757627138974</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.031117123106553728</v>
+        <v>0.0317561542781912</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04363141284560773</v>
+        <v>0.05073397967965719</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.21334950552854054</v>
+        <v>0.18275316312334478</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7436777892492463</v>
+        <v>0.7273401686943406</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7842207793327455</v>
+        <v>0.7652951865671478</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8740089975892827</v>
+        <v>0.8844141861327144</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.24834464334785997</v>
+        <v>0.21366498408145762</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.6343665386671495</v>
+        <v>3.260671033430232</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03794707547770827</v>
+        <v>0.03763571798553817</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04069830996150018</v>
+        <v>0.05027419148134758</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18601167450773953</v>
+        <v>0.16932465534948316</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7412313992899322</v>
+        <v>0.7258708602768422</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7821824905151377</v>
+        <v>0.7641168823461502</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.873250751729246</v>
+        <v>0.8864682569920863</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.24611057200182135</v>
+        <v>0.21256679107451304</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.5909991458675488</v>
+        <v>3.239387752486234</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03857521718867515</v>
+        <v>0.038149670729361054</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04100092162634149</v>
+        <v>0.05091496696297299</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.18601167450773953</v>
+        <v>0.16932465534948316</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7840656475134362</v>
+        <v>0.7792671771670764</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8121686817009827</v>
+        <v>0.8046251490474081</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8987495059835588</v>
+        <v>0.904431858404512</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.28216828054035814</v>
+        <v>0.2555076625912633</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.3239257918003515</v>
+        <v>4.118366028812238</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.03031295342438195</v>
+        <v>0.0293985866759656</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03963444402967714</v>
+        <v>0.05396794742092227</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.23080288464229312</v>
+        <v>0.20979929854820653</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7841905166206325</v>
+        <v>0.774096314847228</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8064779820217362</v>
+        <v>0.793886321773906</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.89315086482017</v>
+        <v>0.8965009607157124</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2747589388954998</v>
+        <v>0.24298300095902817</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.167370671549728</v>
+        <v>3.851691593718792</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.029769628539745376</v>
+        <v>0.02860457670909409</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04159457720654666</v>
+        <v>0.05650194263922099</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.22159879478455752</v>
+        <v>0.19037367386902154</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7775951742374543</v>
+        <v>0.7773990418525264</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8003461808059855</v>
+        <v>0.7922662326407428</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9050909952333623</v>
+        <v>0.9015965101102057</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.26709026534642344</v>
+        <v>0.24117169044311215</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>4.00866952626759</v>
+        <v>3.8138538703271507</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.031226112752144732</v>
+        <v>0.02770278640196884</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04436615601807876</v>
+        <v>0.058780293848154544</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1869465639087008</v>
+        <v>0.2000249376986074</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7714296219742643</v>
+        <v>0.7698671005537433</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7927648721673364</v>
+        <v>0.7913914729923116</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8979630418160145</v>
+        <v>0.9050916008262304</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2580319762781545</v>
+        <v>0.2402018280705183</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.8254367416293964</v>
+        <v>3.7936679019987727</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.031770537822035594</v>
+        <v>0.029342501578517675</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04561369283300799</v>
+        <v>0.06197762493050577</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.20624909156787252</v>
+        <v>0.17670627575031925</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7652272244822215</v>
+        <v>0.7654129751843387</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7919828989646457</v>
+        <v>0.7853098002089355</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8900089137699609</v>
+        <v>0.8997287612570166</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.25712302865734105</v>
+        <v>0.23361245327313798</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.8072970684753495</v>
+        <v>3.6578744673636514</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03315909064288284</v>
+        <v>0.02972817702520693</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04364494606504591</v>
+        <v>0.06292015420079727</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.20624909156787252</v>
+        <v>0.18275316312334478</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7667751115650597</v>
+        <v>0.7569757533107286</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7911464336371182</v>
+        <v>0.7836218689203341</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.889410040712947</v>
+        <v>0.8902228680776856</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2561558355805337</v>
+        <v>0.23182985370812748</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.7880436873292638</v>
+        <v>3.6215391315669563</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.032728691509040564</v>
+        <v>0.03142341391015327</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.044293770592103876</v>
+        <v>0.06076212085459766</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.20624909156787252</v>
+        <v>0.18187049520208864</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7599955575299866</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7865720711094675</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8895911502437484</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.23495844168455976</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.685422405578896</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.030843388088910843</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.0602292153714274</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1812125554599585</v>
       </c>
     </row>
     <row r="24">
@@ -4556,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>98.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5620227918783631</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6594382019075732</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6413500980302208</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4976211272707695</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.8877551020408165</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.8358297693455385</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.49058367368497646</v>
+        <v>0.2080529798417777</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6069505534801136</v>
+        <v>0.36536938256308904</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5627351215410573</v>
+        <v>0.29373199820004475</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4130886104827578</v>
+        <v>0.19766031944840887</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.469387755102041</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>0.9104669882844371</v>
+        <v>0.10101525445522107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5281408968587915</v>
+        <v>0.4894275117944096</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6383213673044893</v>
+        <v>0.5741392474916882</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6170771913878724</v>
+        <v>0.5318437882405881</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.463439269251272</v>
+        <v>0.4167896448833361</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.9285714285714284</v>
+        <v>3.8877551020408165</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.8027016238349195</v>
+        <v>0.8358297693455385</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.41828633537260934</v>
+        <v>0.4151267433693765</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.536337524075806</v>
+        <v>0.5307860716289517</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.4934359784223529</v>
+        <v>0.4759702482402432</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.33388897893834674</v>
+        <v>0.32954212283222467</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>4.510204081632653</v>
+        <v>4.469387755102041</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>0.9221769175161908</v>
+        <v>0.9104669882844371</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7633703361309406</v>
+        <v>0.7410336921309021</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6480648524528763</v>
+        <v>0.6735206674307096</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6718681741223645</v>
+        <v>0.7005957898112576</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.637186681305427</v>
+        <v>0.7152360745719</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>2.163265306122449</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.190390811765896</v>
+        <v>0.5024660415090422</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7790189503152707</v>
+        <v>0.8039310525065878</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6661580074472787</v>
+        <v>0.7351308895566088</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6908716753860396</v>
+        <v>0.7673096544687109</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6543716226598925</v>
+        <v>0.6914132317667616</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.183673469387755</v>
+        <v>2.163265306122449</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.2583039835171177</v>
+        <v>2.190390811765896</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.42795420646711596</v>
+        <v>0.8139844445896652</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.37413612977199656</v>
+        <v>0.7454272817197395</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3275707802697972</v>
+        <v>0.7747845539026804</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.28844834078780796</v>
+        <v>0.701598024157123</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.489795918367347</v>
+        <v>2.183673469387755</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4870221953514025</v>
+        <v>2.2583039835171177</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.47764752883217104</v>
+        <v>0.3001482846761289</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.43414243486364573</v>
+        <v>0.342824050623596</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.39841929557849504</v>
+        <v>0.3006058920045022</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.31734770974299575</v>
+        <v>0.26425372374289685</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.520408163265306</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.754109118828534</v>
+        <v>0.3618976564426625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5065558987448167</v>
+        <v>0.456253727238301</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4962490006951006</v>
+        <v>0.4602522504577985</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.43193586180429794</v>
+        <v>0.4369497848076439</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3626207657408066</v>
+        <v>0.3164757278611152</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.1020408163265305</v>
+        <v>2.489795918367347</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.6339806300405708</v>
+        <v>1.4870221953514025</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5230138331387588</v>
+        <v>0.4806022159185174</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.569609696353681</v>
+        <v>0.47723466000069187</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5229474155122306</v>
+        <v>0.44228570896031505</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4155045125090185</v>
+        <v>0.3165045348642948</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.7551020408163267</v>
+        <v>2.520408163265306</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2767647943124811</v>
+        <v>1.754109118828534</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5841177541825471</v>
+        <v>0.5144727070695378</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5769710235621126</v>
+        <v>0.4863278551579569</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5536944297219412</v>
+        <v>0.42248507538975477</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.48700782160823536</v>
+        <v>0.367967160652277</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.7346938775510203</v>
+        <v>2.1020408163265305</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2563325812886847</v>
+        <v>1.6339806300405708</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>98.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5693240611399923</v>
+        <v>0.5110254959867926</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5848040653668056</v>
+        <v>0.5481082403859087</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5615792965980442</v>
+        <v>0.4996385699194032</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4737933516866912</v>
+        <v>0.39913693709240206</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.7551020408163267</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2767647943124811</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>98.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5923709968207691</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.564821462993509</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5460351891654374</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4939712103003523</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.7346938775510203</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2563325812886847</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>98.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5630862905858491</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5354885784108371</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5162797595848153</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.46415671962918587</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.36734693877551</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2132240008880217</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.24489795918367346</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5306122448979592</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.20408163265306123</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.1836734693877551</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.11224489795918367</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.6938775510204082</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.02040816326530612</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.01020408163265306</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.20408163265306123</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5510204081632653</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.21428571428571427</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C46" t="n" s="110">
         <v>0.01020408163265306</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.02040816326530612</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.17346938775510204</v>
+        <v>0.24489795918367346</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.04081632653061224</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.7551020408163265</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,10 +5047,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.4897959183673469</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
@@ -5053,13 +5059,13 @@
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.08163265306122448</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.22448979591836735</v>
+        <v>0.11224489795918367</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.20408163265306123</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.4897959183673469</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.030612244897959183</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.09183673469387756</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.09183673469387756</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.29591836734693877</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.15306122448979592</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16326530612244897</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.030612244897959183</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.3877551020408163</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="F49" t="n" s="113">
         <v>0.22448979591836735</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.04081632653061224</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.15306122448979592</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.21428571428571427</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="E50" t="n" s="112">
         <v>0.09183673469387756</v>
       </c>
-      <c r="E50" t="n" s="112">
-        <v>0.2653061224489796</v>
-      </c>
       <c r="F50" t="n" s="113">
-        <v>0.05102040816326531</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.22448979591836735</v>
+        <v>0.29591836734693877</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.3163265306122449</v>
+        <v>0.15306122448979592</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.061224489795918366</v>
+        <v>0.8469387755102041</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.09183673469387756</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2653061224489796</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.2653061224489796</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,25 +5177,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.1326530612244898</v>
+        <v>0.15306122448979592</v>
       </c>
       <c r="C52" t="n" s="110">
+        <v>0.16326530612244897</v>
+      </c>
+      <c r="D52" t="n" s="111">
         <v>0.030612244897959183</v>
       </c>
-      <c r="D52" t="n" s="111">
-        <v>0.07142857142857142</v>
-      </c>
       <c r="E52" t="n" s="112">
-        <v>0.47959183673469385</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.2857142857142857</v>
+        <v>0.22448979591836735</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5197,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.10204081632653061</v>
+        <v>0.15306122448979592</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.01020408163265306</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.30612244897959184</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.21428571428571427</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.3673469387755102</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.22448979591836735</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.3163265306122449</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.061224489795918366</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.09183673469387756</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.2653061224489796</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.2653061224489796</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.1326530612244898</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.030612244897959183</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.47959183673469385</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.30612244897959184</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.3673469387755102</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.1326530612244898</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.01020408163265306</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.41836734693877553</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.23469387755102042</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.20408163265306123</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8359733402579416</v>
+        <v>0.8672420124862283</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8388493623750142</v>
+        <v>0.988200851590266</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.829253787256233</v>
+        <v>0.9840118307608189</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5654712195889844</v>
+        <v>0.9654186165225273</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.205374143955315</v>
+        <v>83.7518791419748</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.02761665706620767</v>
+        <v>0.0031520828926332864</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>4.198979591836735</v>
+        <v>1.619047619047619</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.7116113409791478</v>
+        <v>1.635096180321006</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5545684567551696</v>
+        <v>0.9713309519759453</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7929408249930645</v>
+        <v>0.9852240125973382</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7935774657541935</v>
+        <v>0.9854570091362291</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7225683664022539</v>
+        <v>0.9713309519759454</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5616875363421383</v>
+        <v>0.9713309519759452</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.844432337068431</v>
+        <v>67.76164671815745</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.035774761796438424</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.002327557317211625</v>
-      </c>
+        <v>0.0029608703089596517</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5650412796417257</v>
+        <v>0.9713309519759453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7963687904967602</v>
+        <v>0.575268817204301</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8031273316242307</v>
+        <v>0.9755607211235782</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7668212243895285</v>
+        <v>0.9522875013085673</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5762367847602011</v>
+        <v>0.9522875013085672</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.0794252358651795</v>
+        <v>39.91773759187166</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03706325522282645</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.02538086640452481</v>
-      </c>
+        <v>0.01213765397636038</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5650412796417257</v>
+        <v>0.9522875013085673</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7689355555076431</v>
+        <v>0.595435927442949</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.768311638431737</v>
+        <v>0.9861289237603985</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7010567726000971</v>
+        <v>0.9726373962830688</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.525026554191034</v>
+        <v>0.9726373962830688</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.316142568539711</v>
+        <v>71.09245935402176</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04028213656137636</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.008861546574227388</v>
-      </c>
+        <v>0.009138334099478604</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5440956338686135</v>
+        <v>0.9726373962830689</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8130212954747117</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8175204353401909</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7685071465874859</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5989340030625642</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.480065682227317</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.033572744074006046</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.015365635187164222</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5440956338686135</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5568,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>98.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9751672455596216</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9864117613868293</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.976384056298705</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9692776312198825</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.5024660415090422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>98.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8135782425034779</v>
+        <v>0.9933500530233944</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8244943211723451</v>
+        <v>0.992834040376337</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7696463853265886</v>
+        <v>0.9899406624451328</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6665732393225041</v>
+        <v>0.9785444974549646</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.8877551020408165</v>
+        <v>2.163265306122449</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.8358297693455385</v>
+        <v>2.190390811765896</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>98.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.821003742850171</v>
+        <v>0.9916624611271314</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8112039056569248</v>
+        <v>0.9859711716023855</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7136852375306574</v>
+        <v>0.9750925474820732</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6596856724638783</v>
+        <v>0.9718219598226339</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.469387755102041</v>
+        <v>2.183673469387755</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9104669882844371</v>
+        <v>2.2583039835171177</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>98.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8463265360113661</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.857983314692222</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8171814220234299</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7272120817693007</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.9285714285714284</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.8027016238349195</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>98.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8020022462267106</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.7904705004929782</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.6901465736930807</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6248309368398172</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>4.510204081632653</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>0.9221769175161908</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.08163265306122448</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.22448979591836735</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.20408163265306123</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.01020408163265306</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.01020408163265306</v>
+        <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.24489795918367346</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5306122448979592</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.20408163265306123</v>
+        <v>0.29591836734693877</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.1836734693877551</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.11224489795918367</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.6938775510204082</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.20408163265306123</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5510204081632653</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.01020408163265306</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.17346938775510204</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.04081632653061224</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.7551020408163265</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5821,7 +5818,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5870,31 +5867,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8407799006099461</v>
+        <v>0.7476339772550242</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8474055742277682</v>
+        <v>0.8687999050097869</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7352157491652027</v>
+        <v>0.8229205248687691</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7352157491652029</v>
+        <v>0.6882127489407761</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>5.553319329584411</v>
+        <v>6.62194570114142</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.03124469160375641</v>
+        <v>0.023044387932741082</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.5051020408163267</v>
+        <v>1.9523809523809523</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.5102653859080797</v>
+        <v>1.0956542292844544</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7352157491652028</v>
+        <v>0.7154512615969743</v>
       </c>
     </row>
     <row r="7">
@@ -5944,22 +5941,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7352157491652028</v>
+        <v>0.8407799006099461</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7352157491652028</v>
+        <v>0.8474055742277682</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.5405421978205502</v>
+        <v>0.7352157491652027</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.7352157491652028</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7352157491652028</v>
-      </c>
+        <v>0.7352157491652029</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>5.553319329584411</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.03124469160375641</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7352157491652028</v>
       </c>
@@ -5969,25 +5968,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5405421978205502</v>
+        <v>0.3909877585479107</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7352157491652028</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5405421978205502</v>
-      </c>
+        <v>0.76082054294711</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6139712360601511</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.6139712360601512</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>3.18096107551105</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03962532493750833</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7352157491652028</v>
+        <v>0.6139712360601511</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.4948453608247423</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8341260140855711</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7154512615969744</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7154512615969741</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>5.028672877710191</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.03469413853815296</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7154512615969743</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6023,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>98.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9192658691567985</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9314547088198124</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7986732582808043</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7352157491652028</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.489795918367347</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4870221953514025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>98.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9426791088431934</v>
+        <v>0.7614209054607667</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9314547088198124</v>
+        <v>0.8724198460700884</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7986732582808044</v>
+        <v>0.767140626194915</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7352157491652028</v>
+        <v>0.7087709450055228</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8469387755102041</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3618976564426625</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>98.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9235246239201456</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9178285770179259</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8682835316729898</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7755090745412921</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.489795918367347</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.4870221953514025</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>98.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.933867007071853</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8798220804089733</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7867294198568106</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7456694332325875</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.520408163265306</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.754109118828534</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.15306122448979592</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8469387755102041</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.15306122448979592</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.16326530612244897</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.030612244897959183</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.3877551020408163</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.22448979591836735</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.04081632653061224</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.15306122448979592</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.21428571428571427</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.09183673469387756</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.2653061224489796</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.05102040816326531</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.22448979591836735</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6194,7 +6278,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6243,31 +6327,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8855407794603736</v>
+        <v>0.5912218169761272</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8858415098901589</v>
+        <v>0.7549137290723981</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7950767487333212</v>
+        <v>0.6740957674965445</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7950767487333212</v>
+        <v>0.5065948458106478</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.759751456399067</v>
+        <v>3.080195909037265</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.023086016202459706</v>
+        <v>0.0426716323441187</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.5510204081632653</v>
+        <v>3.1156462585034013</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1698308008733556</v>
+        <v>0.5310562230733151</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7950767487333212</v>
+        <v>0.5009854750161865</v>
       </c>
     </row>
     <row r="7">
@@ -6314,53 +6398,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7950767487333212</v>
+        <v>0.7030768543741348</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7950767487333212</v>
+        <v>0.704743439375479</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6321470363763488</v>
+        <v>0.5440956338686134</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7950767487333212</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7950767487333212</v>
-      </c>
+        <v>0.5440956338686136</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>2.386884944689525</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.05967748631291972</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7950767487333212</v>
+        <v>0.5440956338686135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6321470363763488</v>
+        <v>0.1978990172822772</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7950767487333212</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6321470363763488</v>
-      </c>
+        <v>0.6675420693338605</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5009854750161864</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5009854750161864</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.0078993693918497</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.03092892515643161</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7950767487333212</v>
+        <v>0.5009854750161865</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.20320000000000005</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6437951107427944</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.4747034285471433</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.4747034285471434</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.8073730320920105</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.03397172408538195</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.4747034285471433</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6483,219 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>98.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9492564111587284</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9473850190744314</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8447555223582945</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7950767487333213</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.7346938775510203</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2563325812886847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>98.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.945480672630302</v>
+        <v>0.5987547123460649</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9473850190744314</v>
+        <v>0.8039250925393537</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8447555223582945</v>
+        <v>0.6367082236617094</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7950767487333213</v>
+        <v>0.5557019164988107</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.36734693877551</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2132240008880217</v>
+        <v>0.10101525445522107</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>98.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.8656730431143455</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8214669931808545</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.6786726915551503</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.5630151436774751</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.8877551020408165</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.8358297693455385</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>98.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.8886978001978394</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.832161387729329</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7023524544008325</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.5689643276088323</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.469387755102041</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>0.9104669882844371</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="E24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.10204081632653061</v>
-      </c>
-      <c r="C23" t="n" s="455">
+      <c r="G24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
         <v>0.01020408163265306</v>
       </c>
-      <c r="D23" t="n" s="456">
-        <v>0.30612244897959184</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.3673469387755102</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1326530612244898</v>
-      </c>
-      <c r="C24" t="n" s="455">
+      <c r="C25" t="n" s="455">
+        <v>0.9897959183673469</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
         <v>0.01020408163265306</v>
       </c>
-      <c r="D24" t="n" s="456">
-        <v>0.41836734693877553</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.23469387755102042</v>
-      </c>
-      <c r="F24" t="n" s="458">
+      <c r="C26" t="n" s="455">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.24489795918367346</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.5306122448979592</v>
+      </c>
+      <c r="F26" t="n" s="458">
         <v>0.20408163265306123</v>
       </c>
-      <c r="G24" t="n" s="459">
+      <c r="G26" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.1836734693877551</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.11224489795918367</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.6938775510204082</v>
+      </c>
+      <c r="G27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6558,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6607,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9852240125973382</v>
+        <v>0.7322126418956638</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9854570091362291</v>
+        <v>0.7462502046436461</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9713309519759454</v>
+        <v>0.5952146173085029</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9713309519759452</v>
+        <v>0.5952146173085029</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>67.76164671815745</v>
+        <v>2.9408898777461014</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.0029608703089596517</v>
+        <v>0.05167346722129346</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>2.173469387755102</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>2.2083511141535275</v>
+        <v>1.3022581497766845</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9713309519759453</v>
+        <v>0.5952146173085029</v>
       </c>
     </row>
     <row r="7">
@@ -6678,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9713309519759453</v>
+        <v>0.5952146173085029</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9713309519759453</v>
+        <v>0.5952146173085029</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9434838182664965</v>
+        <v>0.3542804406577075</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9713309519759453</v>
+        <v>0.5952146173085029</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9713309519759453</v>
+        <v>0.5952146173085029</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9713309519759453</v>
+        <v>0.5952146173085029</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9434838182664965</v>
+        <v>0.3542804406577075</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9713309519759453</v>
+        <v>0.5952146173085029</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9434838182664965</v>
+        <v>0.3542804406577075</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9713309519759453</v>
+        <v>0.5952146173085029</v>
       </c>
     </row>
     <row r="13">
@@ -6734,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6763,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>98.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9925847710152376</v>
+        <v>0.9191456006210298</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9928068674157994</v>
+        <v>0.8930886342655198</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9784719644022617</v>
+        <v>0.689019251533007</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.971330951975945</v>
+        <v>0.5952146173085029</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>2.163265306122449</v>
+        <v>2.1020408163265305</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>2.190390811765896</v>
+        <v>1.6339806300405708</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>98.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9930255990090116</v>
+        <v>0.8636282867944842</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9928068674157994</v>
+        <v>0.8930886342655198</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9784719644022617</v>
+        <v>0.689019251533007</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9713309519759452</v>
+        <v>0.5952146173085028</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>2.183673469387755</v>
+        <v>2.7551020408163267</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>2.2583039835171177</v>
+        <v>1.2767647943124811</v>
       </c>
     </row>
     <row r="19">
@@ -6825,13 +6993,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
         <v>39</v>
@@ -6846,27 +7014,27 @@
         <v>42</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.4897959183673469</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.0</v>
+        <v>0.061224489795918366</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.08163265306122448</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.22448979591836735</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.20408163265306123</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="G23" t="n" s="573">
         <v>0.0</v>
@@ -6874,22 +7042,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.4897959183673469</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="C24" t="n" s="569">
         <v>0.030612244897959183</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.09183673469387756</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.09183673469387756</v>
+        <v>0.47959183673469385</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.29591836734693877</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G24" t="n" s="573">
         <v>0.0</v>
@@ -6922,7 +7090,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="575">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6971,31 +7139,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="604">
-        <v>0.7322126418956638</v>
+        <v>0.8855407794603736</v>
       </c>
       <c r="B6" t="n" s="605">
-        <v>0.7462502046436461</v>
+        <v>0.8858415098901589</v>
       </c>
       <c r="C6" t="n" s="606">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
       <c r="D6" t="n" s="607">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
       <c r="E6" t="n" s="608">
-        <v>2.9408898777461014</v>
+        <v>7.759751456399067</v>
       </c>
       <c r="F6" t="n" s="609">
-        <v>0.05167346722129346</v>
+        <v>0.023086016202459706</v>
       </c>
       <c r="G6" t="n" s="610">
-        <v>2.4285714285714284</v>
+        <v>2.5510204081632653</v>
       </c>
       <c r="H6" t="n" s="611">
-        <v>1.3022581497766845</v>
+        <v>1.1698308008733556</v>
       </c>
       <c r="I6" t="n" s="612">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
     </row>
     <row r="7">
@@ -7042,48 +7210,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="626">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="631">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
       <c r="C11" t="n" s="632">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
       <c r="D11" t="n" s="633">
-        <v>0.3542804406577075</v>
+        <v>0.6321470363763488</v>
       </c>
       <c r="E11" t="n" s="634">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
       <c r="F11" s="635"/>
       <c r="G11" s="636"/>
       <c r="H11" t="n" s="637">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
       <c r="I11" t="n" s="638">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="626">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="631">
-        <v>0.3542804406577075</v>
+        <v>0.6321470363763488</v>
       </c>
       <c r="C12" t="n" s="632">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
       <c r="D12" s="633"/>
       <c r="E12" s="634"/>
       <c r="F12" s="635"/>
       <c r="G12" s="636"/>
       <c r="H12" t="n" s="637">
-        <v>0.3542804406577075</v>
+        <v>0.6321470363763488</v>
       </c>
       <c r="I12" t="n" s="638">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333212</v>
       </c>
     </row>
     <row r="13">
@@ -7098,25 +7266,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="642">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="656">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="656">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="656">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="656">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="656">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="656">
         <v>9</v>
@@ -7127,54 +7295,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="652">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="657">
         <v>98.0</v>
       </c>
       <c r="C17" t="n" s="658">
-        <v>0.9191456006210298</v>
+        <v>0.9492564111587284</v>
       </c>
       <c r="D17" t="n" s="659">
-        <v>0.8930886342655198</v>
+        <v>0.9473850190744314</v>
       </c>
       <c r="E17" t="n" s="660">
-        <v>0.689019251533007</v>
+        <v>0.8447555223582945</v>
       </c>
       <c r="F17" t="n" s="661">
-        <v>0.5952146173085029</v>
+        <v>0.7950767487333213</v>
       </c>
       <c r="G17" t="n" s="662">
-        <v>2.1020408163265305</v>
+        <v>2.7346938775510203</v>
       </c>
       <c r="H17" t="n" s="663">
-        <v>1.6339806300405708</v>
+        <v>1.2563325812886847</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="652">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="657">
         <v>98.0</v>
       </c>
       <c r="C18" t="n" s="658">
-        <v>0.8636282867944842</v>
+        <v>0.945480672630302</v>
       </c>
       <c r="D18" t="n" s="659">
-        <v>0.8930886342655198</v>
+        <v>0.9473850190744314</v>
       </c>
       <c r="E18" t="n" s="660">
-        <v>0.689019251533007</v>
+        <v>0.8447555223582945</v>
       </c>
       <c r="F18" t="n" s="661">
-        <v>0.5952146173085028</v>
+        <v>0.7950767487333213</v>
       </c>
       <c r="G18" t="n" s="662">
-        <v>2.7551020408163267</v>
+        <v>2.36734693877551</v>
       </c>
       <c r="H18" t="n" s="663">
-        <v>1.2767647943124811</v>
+        <v>1.2132240008880217</v>
       </c>
     </row>
     <row r="19">
@@ -7189,48 +7357,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="667">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="681">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="681">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="681">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="681">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="681">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="681">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="677">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="682">
-        <v>0.3163265306122449</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="C23" t="n" s="683">
-        <v>0.061224489795918366</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="D23" t="n" s="684">
-        <v>0.09183673469387756</v>
+        <v>0.30612244897959184</v>
       </c>
       <c r="E23" t="n" s="685">
-        <v>0.2653061224489796</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="F23" t="n" s="686">
-        <v>0.2653061224489796</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="G23" t="n" s="687">
         <v>0.0</v>
@@ -7238,22 +7406,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="677">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="682">
         <v>0.1326530612244898</v>
       </c>
       <c r="C24" t="n" s="683">
-        <v>0.030612244897959183</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="D24" t="n" s="684">
-        <v>0.07142857142857142</v>
+        <v>0.41836734693877553</v>
       </c>
       <c r="E24" t="n" s="685">
-        <v>0.47959183673469385</v>
+        <v>0.23469387755102042</v>
       </c>
       <c r="F24" t="n" s="686">
-        <v>0.2857142857142857</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="G24" t="n" s="687">
         <v>0.0</v>
@@ -7286,7 +7454,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="689">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7335,31 +7503,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="718">
-        <v>0.7991447760817068</v>
+        <v>0.7974307670122077</v>
       </c>
       <c r="B6" t="n" s="719">
-        <v>0.8233498971026869</v>
+        <v>0.8236869457301952</v>
       </c>
       <c r="C6" t="n" s="720">
-        <v>0.9092640402662284</v>
+        <v>0.90652643493854</v>
       </c>
       <c r="D6" t="n" s="721">
-        <v>0.3179140115026771</v>
+        <v>0.3184171088276775</v>
       </c>
       <c r="E6" t="n" s="722">
-        <v>4.660908109299548</v>
+        <v>4.671729777136866</v>
       </c>
       <c r="F6" t="n" s="723">
-        <v>0.028214725908171125</v>
+        <v>0.02589695000729649</v>
       </c>
       <c r="G6" t="n" s="724">
-        <v>3.110204081632653</v>
+        <v>2.416326530612245</v>
       </c>
       <c r="H6" t="n" s="725">
-        <v>0.8496803275069046</v>
+        <v>0.821200262822659</v>
       </c>
       <c r="I6" t="n" s="726">
-        <v>0.28022065619546555</v>
+        <v>0.2723767166025711</v>
       </c>
     </row>
     <row r="7">
@@ -7406,292 +7574,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="740">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="745">
-        <v>0.7813252744979235</v>
+        <v>0.7797773497106251</v>
       </c>
       <c r="C11" t="n" s="746">
-        <v>0.7959637553690064</v>
+        <v>0.7964738110438357</v>
       </c>
       <c r="D11" t="n" s="747">
-        <v>0.887294020198994</v>
+        <v>0.8810009663520432</v>
       </c>
       <c r="E11" t="n" s="748">
-        <v>0.302384527676298</v>
+        <v>0.3030480665690971</v>
       </c>
       <c r="F11" t="n" s="749">
-        <v>3.9010900088292355</v>
+        <v>3.913372599019093</v>
       </c>
       <c r="G11" t="n" s="750">
-        <v>0.030645372474245314</v>
+        <v>0.029290830368286815</v>
       </c>
       <c r="H11" t="n" s="751">
-        <v>0.04023012427090321</v>
+        <v>0.04158796259296787</v>
       </c>
       <c r="I11" t="n" s="752">
-        <v>0.2717453648870062</v>
+        <v>0.27629868639901833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="740">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="745">
-        <v>0.7870010762057732</v>
+        <v>0.7461622752465198</v>
       </c>
       <c r="C12" t="n" s="746">
-        <v>0.8036036697257832</v>
+        <v>0.7904205144081312</v>
       </c>
       <c r="D12" t="n" s="747">
-        <v>0.8987829480099112</v>
+        <v>0.877285922605214</v>
       </c>
       <c r="E12" t="n" s="748">
-        <v>0.3125438881956683</v>
+        <v>0.2953037127373047</v>
       </c>
       <c r="F12" t="n" s="749">
-        <v>4.09174483354021</v>
+        <v>3.771459368630103</v>
       </c>
       <c r="G12" t="n" s="750">
-        <v>0.02953015095271722</v>
+        <v>0.034177618567280674</v>
       </c>
       <c r="H12" t="n" s="751">
-        <v>0.04192253035787122</v>
+        <v>0.04133757367106224</v>
       </c>
       <c r="I12" t="n" s="752">
-        <v>0.2812517149116004</v>
+        <v>0.2719168637676166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="740">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="745">
-        <v>0.7876224262950705</v>
+        <v>0.7494349905264855</v>
       </c>
       <c r="C13" t="n" s="746">
-        <v>0.8033324151710186</v>
+        <v>0.7909893790437884</v>
       </c>
       <c r="D13" t="n" s="747">
-        <v>0.8886500149160133</v>
+        <v>0.8815713607511062</v>
       </c>
       <c r="E13" t="n" s="748">
-        <v>0.3121749179351257</v>
+        <v>0.2960195460174776</v>
       </c>
       <c r="F13" t="n" s="749">
-        <v>4.084722024067069</v>
+        <v>3.784445859378138</v>
       </c>
       <c r="G13" t="n" s="750">
-        <v>0.02986163457579657</v>
+        <v>0.03378476885764805</v>
       </c>
       <c r="H13" t="n" s="751">
-        <v>0.03851627686542658</v>
+        <v>0.04215046136533447</v>
       </c>
       <c r="I13" t="n" s="752">
-        <v>0.27629868639901833</v>
+        <v>0.27612718751840787</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="740">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="745">
-        <v>0.7979462463465027</v>
+        <v>0.8059428745243334</v>
       </c>
       <c r="C14" t="n" s="746">
-        <v>0.8186102000163897</v>
+        <v>0.8329723733726779</v>
       </c>
       <c r="D14" t="n" s="747">
-        <v>0.9027450674387866</v>
+        <v>0.9101934414088065</v>
       </c>
       <c r="E14" t="n" s="748">
-        <v>0.33397415647492984</v>
+        <v>0.3565469057640287</v>
       </c>
       <c r="F14" t="n" s="749">
-        <v>4.512989154243273</v>
+        <v>4.987033523689082</v>
       </c>
       <c r="G14" t="n" s="750">
-        <v>0.028338201800090647</v>
+        <v>0.026272023044334188</v>
       </c>
       <c r="H14" t="n" s="751">
-        <v>0.03682696990796637</v>
+        <v>0.0523457371086798</v>
       </c>
       <c r="I14" t="n" s="752">
-        <v>0.2828123071966431</v>
+        <v>0.2908177021374473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="740">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="745">
-        <v>0.7786185236527465</v>
+        <v>0.784614463456075</v>
       </c>
       <c r="C15" t="n" s="746">
-        <v>0.8108506668372277</v>
+        <v>0.8043420556087426</v>
       </c>
       <c r="D15" t="n" s="747">
-        <v>0.8877018503126878</v>
+        <v>0.8959576467345998</v>
       </c>
       <c r="E15" t="n" s="748">
-        <v>0.32263742957600694</v>
+        <v>0.313551429832699</v>
       </c>
       <c r="F15" t="n" s="749">
-        <v>4.286828048922865</v>
+        <v>4.110960370718703</v>
       </c>
       <c r="G15" t="n" s="750">
-        <v>0.0310295940731377</v>
+        <v>0.02756967761750563</v>
       </c>
       <c r="H15" t="n" s="751">
-        <v>0.03883139801247584</v>
+        <v>0.06480022531312828</v>
       </c>
       <c r="I15" t="n" s="752">
-        <v>0.27629868639901833</v>
+        <v>0.2606546065535759</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="740">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="745">
-        <v>0.7808723390415414</v>
+        <v>0.7917523735531081</v>
       </c>
       <c r="C16" t="n" s="746">
-        <v>0.8101261382492271</v>
+        <v>0.8129536796498559</v>
       </c>
       <c r="D16" t="n" s="747">
-        <v>0.887116094083497</v>
+        <v>0.9016551310270371</v>
       </c>
       <c r="E16" t="n" s="748">
-        <v>0.3216074104026667</v>
+        <v>0.325654248517355</v>
       </c>
       <c r="F16" t="n" s="749">
-        <v>4.266654350310696</v>
+        <v>4.346269299112838</v>
       </c>
       <c r="G16" t="n" s="750">
-        <v>0.03039340191544276</v>
+        <v>0.026356926894400202</v>
       </c>
       <c r="H16" t="n" s="751">
-        <v>0.03982531703714203</v>
+        <v>0.06340785483180549</v>
       </c>
       <c r="I16" t="n" s="752">
-        <v>0.2828123071966431</v>
+        <v>0.28178124848050823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="740">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="745">
-        <v>0.7610829719101618</v>
+        <v>0.7830537627266974</v>
       </c>
       <c r="C17" t="n" s="746">
-        <v>0.8045520857955365</v>
+        <v>0.8129881470103586</v>
       </c>
       <c r="D17" t="n" s="747">
-        <v>0.8682033299915296</v>
+        <v>0.9015422520037852</v>
       </c>
       <c r="E17" t="n" s="748">
-        <v>0.3138388682420116</v>
+        <v>0.3257040314416154</v>
       </c>
       <c r="F17" t="n" s="749">
-        <v>4.116452657324714</v>
+        <v>4.347254647305112</v>
       </c>
       <c r="G17" t="n" s="750">
-        <v>0.035275338845000254</v>
+        <v>0.0263244493354074</v>
       </c>
       <c r="H17" t="n" s="751">
-        <v>0.034442356765272304</v>
+        <v>0.06431772203305254</v>
       </c>
       <c r="I17" t="n" s="752">
-        <v>0.27629868639901833</v>
+        <v>0.27220521772196066</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="740">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="745">
-        <v>0.7619059075771684</v>
+        <v>0.7817080029503966</v>
       </c>
       <c r="C18" t="n" s="746">
-        <v>0.8032526262765316</v>
+        <v>0.8088568023044524</v>
       </c>
       <c r="D18" t="n" s="747">
-        <v>0.8680688693390907</v>
+        <v>0.8953647176861798</v>
       </c>
       <c r="E18" t="n" s="748">
-        <v>0.3120665046076264</v>
+        <v>0.31981425197522295</v>
       </c>
       <c r="F18" t="n" s="749">
-        <v>4.082659966813667</v>
+        <v>4.231679767086443</v>
       </c>
       <c r="G18" t="n" s="750">
-        <v>0.03527640659888207</v>
+        <v>0.026084408562654527</v>
       </c>
       <c r="H18" t="n" s="751">
-        <v>0.03502367988412968</v>
+        <v>0.06374493416626413</v>
       </c>
       <c r="I18" t="n" s="752">
-        <v>0.2812517149116004</v>
+        <v>0.27220521772196066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="740">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="745">
-        <v>0.7870952656220828</v>
+        <v>0.7748872150844903</v>
       </c>
       <c r="C19" t="n" s="746">
-        <v>0.8153937148357787</v>
+        <v>0.8106179442537578</v>
       </c>
       <c r="D19" t="n" s="747">
-        <v>0.9046669185649286</v>
+        <v>0.8832763663265657</v>
       </c>
       <c r="E19" t="n" s="748">
-        <v>0.32920589548241797</v>
+        <v>0.32230606416514873</v>
       </c>
       <c r="F19" t="n" s="749">
-        <v>4.416933660251188</v>
+        <v>4.280331317872719</v>
       </c>
       <c r="G19" t="n" s="750">
-        <v>0.029632707081487374</v>
+        <v>0.028037612821086567</v>
       </c>
       <c r="H19" t="n" s="751">
-        <v>0.043013401452391756</v>
+        <v>0.05736609523057636</v>
       </c>
       <c r="I19" t="n" s="752">
-        <v>0.2773297451151532</v>
+        <v>0.2717453648870062</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="740">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="745">
-        <v>0.7824528648804697</v>
+        <v>0.77885348874918</v>
       </c>
       <c r="C20" t="n" s="746">
-        <v>0.8080675349774555</v>
+        <v>0.8133468870395885</v>
       </c>
       <c r="D20" t="n" s="747">
-        <v>0.8965711039264171</v>
+        <v>0.8848377862780096</v>
       </c>
       <c r="E20" t="n" s="748">
-        <v>0.31870651643401976</v>
+        <v>0.3262228312568251</v>
       </c>
       <c r="F20" t="n" s="749">
-        <v>4.210165981469261</v>
+        <v>4.357531862927445</v>
       </c>
       <c r="G20" t="n" s="750">
-        <v>0.029628803285426934</v>
+        <v>0.02721147697867535</v>
       </c>
       <c r="H20" t="n" s="751">
-        <v>0.04437232130914182</v>
+        <v>0.056690380221547786</v>
       </c>
       <c r="I20" t="n" s="752">
-        <v>0.27629868639901833</v>
+        <v>0.28178124848050823</v>
       </c>
     </row>
     <row r="21">
@@ -7706,25 +7874,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="756">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="770">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="770">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="770">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="770">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="770">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="770">
         <v>9</v>
@@ -7735,262 +7903,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="766">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C25" t="n" s="772">
-        <v>0.6214738629215342</v>
+        <v>0.7841086533272239</v>
       </c>
       <c r="D25" t="n" s="773">
-        <v>0.7113574800299942</v>
+        <v>0.7107400325230521</v>
       </c>
       <c r="E25" t="n" s="774">
-        <v>0.6888718752531017</v>
+        <v>0.7387627045301445</v>
       </c>
       <c r="F25" t="n" s="775">
-        <v>0.555298290444486</v>
+        <v>0.7587500791671326</v>
       </c>
       <c r="G25" t="n" s="776">
-        <v>3.8877551020408165</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="H25" t="n" s="777">
-        <v>0.8358297693455385</v>
+        <v>0.5024660415090422</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="766">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C26" t="n" s="772">
-        <v>0.5374564926461709</v>
+        <v>0.8324154950110837</v>
       </c>
       <c r="D26" t="n" s="773">
-        <v>0.6524993776400967</v>
+        <v>0.7555805465216314</v>
       </c>
       <c r="E26" t="n" s="774">
-        <v>0.6026450737841758</v>
+        <v>0.7887527974150754</v>
       </c>
       <c r="F26" t="n" s="775">
-        <v>0.45451365058498117</v>
+        <v>0.714351314953735</v>
       </c>
       <c r="G26" t="n" s="776">
-        <v>4.469387755102041</v>
+        <v>2.163265306122449</v>
       </c>
       <c r="H26" t="n" s="777">
-        <v>0.9104669882844371</v>
+        <v>2.190390811765896</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="766">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C27" t="n" s="772">
-        <v>0.5422096387341401</v>
+        <v>0.829992947597943</v>
       </c>
       <c r="D27" t="n" s="773">
-        <v>0.6546370012958804</v>
+        <v>0.7514358066353328</v>
       </c>
       <c r="E27" t="n" s="774">
-        <v>0.6285157298358561</v>
+        <v>0.7801402980023989</v>
       </c>
       <c r="F27" t="n" s="775">
-        <v>0.4702683888430738</v>
+        <v>0.7053371804815023</v>
       </c>
       <c r="G27" t="n" s="776">
-        <v>3.9285714285714284</v>
+        <v>2.183673469387755</v>
       </c>
       <c r="H27" t="n" s="777">
-        <v>0.8027016238349195</v>
+        <v>2.2583039835171177</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="766">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C28" t="n" s="772">
-        <v>0.3985242951020569</v>
+        <v>0.21330063072803954</v>
       </c>
       <c r="D28" t="n" s="773">
-        <v>0.5283434406380763</v>
+        <v>0.4009768812088704</v>
       </c>
       <c r="E28" t="n" s="774">
-        <v>0.4707723832626413</v>
+        <v>0.3130220210638454</v>
       </c>
       <c r="F28" t="n" s="775">
-        <v>0.3014747893572748</v>
+        <v>0.20151384379621695</v>
       </c>
       <c r="G28" t="n" s="776">
-        <v>4.510204081632653</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="H28" t="n" s="777">
-        <v>0.9221769175161908</v>
+        <v>0.10101525445522107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="766">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C29" t="n" s="772">
-        <v>0.6119551824901728</v>
+        <v>0.547912642389838</v>
       </c>
       <c r="D29" t="n" s="773">
-        <v>0.5940225974423736</v>
+        <v>0.6499246026391235</v>
       </c>
       <c r="E29" t="n" s="774">
-        <v>0.5664748528924459</v>
+        <v>0.5982712656773694</v>
       </c>
       <c r="F29" t="n" s="775">
-        <v>0.506100206573136</v>
+        <v>0.4705708811447893</v>
       </c>
       <c r="G29" t="n" s="776">
-        <v>2.7346938775510203</v>
+        <v>3.8877551020408165</v>
       </c>
       <c r="H29" t="n" s="777">
-        <v>1.2563325812886847</v>
+        <v>0.8358297693455385</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="766">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C30" t="n" s="772">
-        <v>0.5923697798726433</v>
+        <v>0.45431486982418623</v>
       </c>
       <c r="D30" t="n" s="773">
-        <v>0.5999899980334272</v>
+        <v>0.5798481801978234</v>
       </c>
       <c r="E30" t="n" s="774">
-        <v>0.5721880462981543</v>
+        <v>0.5123694431621849</v>
       </c>
       <c r="F30" t="n" s="775">
-        <v>0.4872915151179197</v>
+        <v>0.35972110338275454</v>
       </c>
       <c r="G30" t="n" s="776">
-        <v>2.36734693877551</v>
+        <v>4.469387755102041</v>
       </c>
       <c r="H30" t="n" s="777">
-        <v>1.2132240008880217</v>
+        <v>0.9104669882844371</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="766">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C31" t="n" s="772">
-        <v>0.7834536619686228</v>
+        <v>0.6057046534841598</v>
       </c>
       <c r="D31" t="n" s="773">
-        <v>0.6449969302158493</v>
+        <v>0.5795599325324053</v>
       </c>
       <c r="E31" t="n" s="774">
-        <v>0.6675704230985726</v>
+        <v>0.5066545045546275</v>
       </c>
       <c r="F31" t="n" s="775">
-        <v>0.6458142128315358</v>
+        <v>0.45515027208696246</v>
       </c>
       <c r="G31" t="n" s="776">
-        <v>2.163265306122449</v>
+        <v>2.1020408163265305</v>
       </c>
       <c r="H31" t="n" s="777">
-        <v>2.190390811765896</v>
+        <v>1.6339806300405708</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="766">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C32" t="n" s="772">
-        <v>0.7893331867730535</v>
+        <v>0.5731602019319701</v>
       </c>
       <c r="D32" t="n" s="773">
-        <v>0.6552650922784001</v>
+        <v>0.6136622920510422</v>
       </c>
       <c r="E32" t="n" s="774">
-        <v>0.6782596656418344</v>
+        <v>0.5576991813144383</v>
       </c>
       <c r="F32" t="n" s="775">
-        <v>0.6488564297444176</v>
+        <v>0.45412645759454545</v>
       </c>
       <c r="G32" t="n" s="776">
-        <v>2.183673469387755</v>
+        <v>2.7551020408163267</v>
       </c>
       <c r="H32" t="n" s="777">
-        <v>2.2583039835171177</v>
+        <v>1.2767647943124811</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="766">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C33" t="n" s="772">
-        <v>0.5858569256647213</v>
+        <v>0.6257757997937156</v>
       </c>
       <c r="D33" t="n" s="773">
-        <v>0.5559682889918597</v>
+        <v>0.5992344725310319</v>
       </c>
       <c r="E33" t="n" s="774">
-        <v>0.48504986818015766</v>
+        <v>0.5750028233855331</v>
       </c>
       <c r="F33" t="n" s="775">
-        <v>0.4368336284255126</v>
+        <v>0.5183493156362446</v>
       </c>
       <c r="G33" t="n" s="776">
-        <v>2.1020408163265305</v>
+        <v>2.7346938775510203</v>
       </c>
       <c r="H33" t="n" s="777">
-        <v>1.6339806300405708</v>
+        <v>1.2563325812886847</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="766">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="771">
         <v>98.0</v>
       </c>
       <c r="C34" t="n" s="772">
-        <v>0.5810614027425925</v>
+        <v>0.5930422198083616</v>
       </c>
       <c r="D34" t="n" s="773">
-        <v>0.6167962836163945</v>
+        <v>0.5765560343529511</v>
       </c>
       <c r="E34" t="n" s="774">
-        <v>0.564914985010387</v>
+        <v>0.5491291581119426</v>
       </c>
       <c r="F34" t="n" s="775">
-        <v>0.4678286460626142</v>
+        <v>0.48397015719089476</v>
       </c>
       <c r="G34" t="n" s="776">
-        <v>2.7551020408163267</v>
+        <v>2.36734693877551</v>
       </c>
       <c r="H34" t="n" s="777">
-        <v>1.2767647943124811</v>
+        <v>1.2132240008880217</v>
       </c>
     </row>
     <row r="35">
@@ -8005,54 +8173,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="781">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="795">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="795">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="795">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="795">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="795">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="795">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="795">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="791">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="796">
-        <v>0.01020408163265306</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C39" t="n" s="797">
-        <v>0.01020408163265306</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="D39" t="n" s="798">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="799">
-        <v>0.24489795918367346</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="800">
-        <v>0.5306122448979592</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="801">
-        <v>0.20408163265306123</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="802">
         <v>0.0</v>
@@ -8060,10 +8228,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="791">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="796">
-        <v>0.01020408163265306</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C40" t="n" s="797">
         <v>0.0</v>
@@ -8072,13 +8240,13 @@
         <v>0.0</v>
       </c>
       <c r="E40" t="n" s="799">
-        <v>0.1836734693877551</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="F40" t="n" s="800">
-        <v>0.11224489795918367</v>
+        <v>0.22448979591836735</v>
       </c>
       <c r="G40" t="n" s="801">
-        <v>0.6938775510204082</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="H40" t="n" s="802">
         <v>0.0</v>
@@ -8086,25 +8254,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="791">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="796">
-        <v>0.0</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C41" t="n" s="797">
-        <v>0.02040816326530612</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="798">
-        <v>0.01020408163265306</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="E41" t="n" s="799">
-        <v>0.20408163265306123</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="F41" t="n" s="800">
-        <v>0.5510204081632653</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="G41" t="n" s="801">
-        <v>0.21428571428571427</v>
+        <v>0.29591836734693877</v>
       </c>
       <c r="H41" t="n" s="802">
         <v>0.0</v>
@@ -8112,25 +8280,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="791">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="796">
-        <v>0.0</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C42" t="n" s="797">
-        <v>0.01020408163265306</v>
+        <v>0.9897959183673469</v>
       </c>
       <c r="D42" t="n" s="798">
-        <v>0.02040816326530612</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="799">
-        <v>0.17346938775510204</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="800">
-        <v>0.04081632653061224</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="801">
-        <v>0.7551020408163265</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="802">
         <v>0.0</v>
@@ -8138,25 +8306,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="791">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="796">
-        <v>0.10204081632653061</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C43" t="n" s="797">
         <v>0.01020408163265306</v>
       </c>
       <c r="D43" t="n" s="798">
-        <v>0.30612244897959184</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="799">
-        <v>0.21428571428571427</v>
+        <v>0.24489795918367346</v>
       </c>
       <c r="F43" t="n" s="800">
-        <v>0.3673469387755102</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="G43" t="n" s="801">
-        <v>0.0</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="H43" t="n" s="802">
         <v>0.0</v>
@@ -8164,25 +8332,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="791">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="796">
-        <v>0.1326530612244898</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C44" t="n" s="797">
-        <v>0.01020408163265306</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="798">
-        <v>0.41836734693877553</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n" s="799">
-        <v>0.23469387755102042</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="F44" t="n" s="800">
-        <v>0.20408163265306123</v>
+        <v>0.11224489795918367</v>
       </c>
       <c r="G44" t="n" s="801">
-        <v>0.0</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="H44" t="n" s="802">
         <v>0.0</v>
@@ -8190,25 +8358,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="791">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="796">
-        <v>0.4897959183673469</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="C45" t="n" s="797">
-        <v>0.0</v>
+        <v>0.061224489795918366</v>
       </c>
       <c r="D45" t="n" s="798">
-        <v>0.0</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="E45" t="n" s="799">
-        <v>0.08163265306122448</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="F45" t="n" s="800">
-        <v>0.22448979591836735</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="G45" t="n" s="801">
-        <v>0.20408163265306123</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="802">
         <v>0.0</v>
@@ -8216,25 +8384,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="791">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="796">
-        <v>0.4897959183673469</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="C46" t="n" s="797">
-        <v>0.0</v>
+        <v>0.030612244897959183</v>
       </c>
       <c r="D46" t="n" s="798">
-        <v>0.030612244897959183</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E46" t="n" s="799">
-        <v>0.09183673469387756</v>
+        <v>0.47959183673469385</v>
       </c>
       <c r="F46" t="n" s="800">
-        <v>0.09183673469387756</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G46" t="n" s="801">
-        <v>0.29591836734693877</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="802">
         <v>0.0</v>
@@ -8242,22 +8410,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="791">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="796">
-        <v>0.3163265306122449</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="C47" t="n" s="797">
-        <v>0.061224489795918366</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="D47" t="n" s="798">
-        <v>0.09183673469387756</v>
+        <v>0.30612244897959184</v>
       </c>
       <c r="E47" t="n" s="799">
-        <v>0.2653061224489796</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="F47" t="n" s="800">
-        <v>0.2653061224489796</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="G47" t="n" s="801">
         <v>0.0</v>
@@ -8268,22 +8436,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="791">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="796">
         <v>0.1326530612244898</v>
       </c>
       <c r="C48" t="n" s="797">
-        <v>0.030612244897959183</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="D48" t="n" s="798">
-        <v>0.07142857142857142</v>
+        <v>0.41836734693877553</v>
       </c>
       <c r="E48" t="n" s="799">
-        <v>0.47959183673469385</v>
+        <v>0.23469387755102042</v>
       </c>
       <c r="F48" t="n" s="800">
-        <v>0.2857142857142857</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="G48" t="n" s="801">
         <v>0.0</v>
